--- a/data/trans_bre/P21_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>22,22%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>104,67%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.839271946462547</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.00559972562309</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.222210410028656</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.8780365766047822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 13,38</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 20,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-26,88; 109,15</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>16,3; 290,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.597545753876436</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.103136423678605</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2688164422778886</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.05009664153377406</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.38181956298205</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.72918962863856</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.091527580038204</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2.566561945853245</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>22,1%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 14,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,63; 10,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-27,69; 89,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-47,37; 64,66</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.739429747374641</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9153447219822114</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.2210197578944912</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.03893131814837969</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-17,61%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,68%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.68436154957155</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.49168506808414</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2769258851954088</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4005428542565063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,63; 2,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 10,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-37,81; 11,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,56; 64,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.1737390406759</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.29981845744062</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8969517456796651</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.7989185996355764</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,46</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>26,15%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>21,27%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.408993577152621</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.384363760548335</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.1760586035200904</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2132335659857178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,28; 10,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 10,53</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 79,57</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-19,8; 77,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.63205785466656</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.308688510791317</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.378143269998188</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1375877238196552</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.747843826540811</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.94263882434245</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1175585235449938</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.7575581307392768</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,93</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,99</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>28,62%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>45,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 15,95</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 13,35</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,09; 81,27</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 130,21</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.458364795824729</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.973765073222618</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.2614879606830663</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2319304400013955</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,49</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-15,31%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>28,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.27748858064068</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.339796747925044</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.05922423729234549</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1810926417400277</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,22; 3,43</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 13,95</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-34,39; 11,24</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-22,24; 101,78</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.63086264131849</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.64830429914936</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7957236876322896</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.8372113619548397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>25,33%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>6.932909144930485</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>6.098076764496469</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.2862196067608943</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.4704695913382394</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 4,91</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 8,28</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 21,98</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 51,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.908994888168955</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.4008107952950709</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.07090211252865045</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.0399289001481543</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>15.94643931046305</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>13.27855717315785</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.8127055539605192</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.355168077816519</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-5.486410767954869</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>5.59750505028147</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1531188490445487</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.3013453693684779</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-14.21798466337315</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.671888179482768</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3438771080315447</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.1974424175724335</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>3.431345341255628</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>14.24082401785311</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1124013782875286</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.053845261891438</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.468308432502527</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>5.00545754864046</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.05987656616525591</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.2829745311257664</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.130004857067981</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.049639656204973</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.07841855897958837</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.04437354868231263</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.913722850870901</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.744568295236634</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.2197520605734578</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.5539082320575078</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
